--- a/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-001.xlsx
+++ b/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-001.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\5. シナリオテスト（ユーザー）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C978475F-6FB2-449D-ACED-DFD7156C3342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6A9F39-4F4E-43BB-A012-13D33B792F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-1" sheetId="1" r:id="rId1"/>
-    <sheet name="1-2" sheetId="2" r:id="rId2"/>
-    <sheet name="1-3" sheetId="3" r:id="rId3"/>
-    <sheet name="1-4" sheetId="4" r:id="rId4"/>
-    <sheet name="1-5" sheetId="5" r:id="rId5"/>
-    <sheet name="1-6" sheetId="6" r:id="rId6"/>
-    <sheet name="1-7" sheetId="7" r:id="rId7"/>
+    <sheet name="DB操作前" sheetId="10" r:id="rId1"/>
+    <sheet name="DB操作後" sheetId="9" r:id="rId2"/>
+    <sheet name="1-1" sheetId="1" r:id="rId3"/>
+    <sheet name="1-2" sheetId="2" r:id="rId4"/>
+    <sheet name="1-3" sheetId="3" r:id="rId5"/>
+    <sheet name="1-4" sheetId="4" r:id="rId6"/>
+    <sheet name="1-5" sheetId="5" r:id="rId7"/>
+    <sheet name="1-6" sheetId="6" r:id="rId8"/>
+    <sheet name="1-7" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -89,6 +91,265 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12116423" cy="3854648"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDA92C4-E784-4783-B09F-993639F62EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11983066" cy="3264068"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501B4F82-7F34-4145-83F1-F4564933220E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12141824" cy="5131064"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6001DCFE-309C-40A0-839A-71D967D1A6CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="12141824" cy="5131064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>235573</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26D07B4-D99C-6FD0-9584-86B20175DF97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12122773" cy="3924502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>235573</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBFBB12-9130-8DBA-4FC0-DB216F2B82DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="12122773" cy="4197566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>216522</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>178056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C6F9A6-A4F9-3037-AA1B-55289AD96A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8458200"/>
+          <a:ext cx="12103722" cy="4978656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -136,7 +397,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -185,7 +446,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -234,7 +495,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -283,7 +544,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -332,7 +593,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -381,7 +642,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -692,6 +953,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A76545-66C3-42BE-B231-7DA29C59FB4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E3271-AA2B-4150-8876-E759E307267C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -707,7 +1000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5755536-0878-445A-A3B3-EFDB8AC79705}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -721,7 +1014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8308C11C-AF0E-4264-AFEE-136546287790}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -735,7 +1028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B59740-561E-4898-B32F-4BD27D63EFBA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -749,7 +1042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42162FD5-2967-4956-B67D-2C6378AF800C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -763,7 +1056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58455855-0332-456E-9AA7-3735182F1B34}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -777,11 +1070,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB692B-7715-4036-9252-4ECA3816EA03}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
